--- a/src/docs/activation_functions/activation_functions.xlsx
+++ b/src/docs/activation_functions/activation_functions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e45d375542b52cfc/Programacao de softwares/github/elm/src/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e45d375542b52cfc/Programacao de softwares/github/elm/src/docs/activation_functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC1048E0919E69065ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98FBE025-EF41-4D2B-9501-22F25C0438F5}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC1048E0919E69065ADE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE3D9924-15DE-4347-B82F-5628F61A40C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELU" sheetId="1" r:id="rId1"/>
@@ -5085,63 +5085,16 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Rectified Linear Unit (</a:t>
+              <a:t>Rectified Linear Unit</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>α = </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>.0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
+            <a:endParaRPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -21656,8 +21609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFED2F4-955B-4A1C-B382-E64463FC1C3A}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27166,7 +27119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A7C4A1-2820-42CD-ADF0-8CBEC7FB18E4}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
